--- a/SampleInput.xlsx
+++ b/SampleInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\mqtt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerapon/Library/Mobile Documents/com~apple~CloudDocs/school/teaching/cpe314/65-2/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AD1BDF-C7D2-4D75-A579-C0D024454501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2986D41E-8A48-3345-BF94-2532F95FC9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C37030D-1398-764D-9B01-FC04EF719FCF}"/>
+    <workbookView xWindow="360" yWindow="3480" windowWidth="24900" windowHeight="15500" xr2:uid="{6C37030D-1398-764D-9B01-FC04EF719FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,17 +467,17 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="130.375" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="130.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -491,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44873.505555555559</v>
       </c>
@@ -505,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44873.506944444453</v>
       </c>
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44873.508333333331</v>
       </c>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44873.509722222218</v>
       </c>
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44873.511111111111</v>
       </c>
@@ -561,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44873.512499999997</v>
       </c>
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44873.513888888891</v>
       </c>
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44873.515277777777</v>
       </c>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44873.51666666667</v>
       </c>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44873.518055555563</v>
       </c>
@@ -631,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44873.519444444442</v>
       </c>
@@ -645,7 +645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44873.520833333343</v>
       </c>
@@ -659,7 +659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44873.522222222222</v>
       </c>
@@ -673,7 +673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44873.523611111108</v>
       </c>
@@ -687,7 +687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44873.525000000001</v>
       </c>
@@ -701,7 +701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>44873.526388888888</v>
       </c>
@@ -726,7 +726,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
